--- a/src/test/resources/TestSuite.xlsx
+++ b/src/test/resources/TestSuite.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="179">
   <si>
     <t>TCID</t>
   </si>
@@ -546,6 +546,21 @@
   </si>
   <si>
     <t>Hello</t>
+  </si>
+  <si>
+    <t>enterText</t>
+  </si>
+  <si>
+    <t>name||q</t>
+  </si>
+  <si>
+    <t>xpath||.//input[@value='Google Search']</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                              </t>
+  </si>
+  <si>
+    <t>Verify the entered text</t>
   </si>
 </sst>
 </file>
@@ -1121,21 +1136,21 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="26" style="22" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.7109375" style="26" customWidth="1"/>
     <col min="8" max="16384" width="15.7109375" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="22" customFormat="1">
+    <row r="1" spans="1:7">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -1151,8 +1166,10 @@
       <c r="E1" s="21" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="22" customFormat="1">
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="23" t="s">
         <v>10</v>
       </c>
@@ -1164,8 +1181,10 @@
         <v>171</v>
       </c>
       <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="1:7" s="22" customFormat="1">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="23" t="s">
         <v>170</v>
       </c>
@@ -1177,23 +1196,27 @@
         <v>172</v>
       </c>
       <c r="E3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" s="22" customFormat="1">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>173</v>
       </c>
       <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:7" s="22" customFormat="1">
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="23" t="s">
         <v>31</v>
       </c>
@@ -1201,86 +1224,74 @@
         <v>85</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="24"/>
-    </row>
-    <row r="6" spans="1:7" s="22" customFormat="1">
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>85</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B6" s="23"/>
       <c r="C6" s="23" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="D6" s="23"/>
       <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="1:7" s="22" customFormat="1">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="1:7" s="22" customFormat="1">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="1:7" s="22" customFormat="1">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="1:7" s="22" customFormat="1">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="1:7" s="22" customFormat="1">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="1:7" s="22" customFormat="1">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="26"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" s="22" customFormat="1">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="26"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/src/test/resources/TestSuite.xlsx
+++ b/src/test/resources/TestSuite.xlsx
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75"/>

--- a/src/test/resources/TestSuite.xlsx
+++ b/src/test/resources/TestSuite.xlsx
@@ -939,7 +939,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestSuite.xlsx
+++ b/src/test/resources/TestSuite.xlsx
@@ -8,9 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
-    <sheet name="GoogleSearch_Hello" sheetId="7" r:id="rId2"/>
-    <sheet name="YahooSearch_Yummy" sheetId="8" r:id="rId3"/>
-    <sheet name="Test Steps" sheetId="4" r:id="rId4"/>
+    <sheet name="CCC" sheetId="11" r:id="rId2"/>
+    <sheet name="AAA" sheetId="9" r:id="rId3"/>
+    <sheet name="GoogleSearch_Hello" sheetId="7" r:id="rId4"/>
+    <sheet name="YahooSearch_Yummy" sheetId="8" r:id="rId5"/>
+    <sheet name="Test Steps" sheetId="4" r:id="rId6"/>
+    <sheet name="BBB" sheetId="10" r:id="rId7"/>
+    <sheet name="DDD" sheetId="12" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Keyword">#REF!</definedName>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="163">
   <si>
     <t>TCID</t>
   </si>
@@ -479,6 +483,39 @@
   </si>
   <si>
     <t>Verify the entered text</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>A1</t>
   </si>
 </sst>
 </file>
@@ -936,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,12 +1019,56 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7">
       <formula1>RunMode</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7">
       <formula1>TCID</formula1>
     </dataValidation>
   </dataValidations>
@@ -996,6 +1077,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -1174,7 +1281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -1216,7 +1323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
@@ -2234,4 +2341,28 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestSuite.xlsx
+++ b/src/test/resources/TestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="162">
   <si>
     <t>TCID</t>
   </si>
@@ -509,13 +509,10 @@
     <t>N</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>A1</t>
+  </si>
+  <si>
+    <t>http://www.google.com</t>
   </si>
 </sst>
 </file>
@@ -630,7 +627,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -640,15 +637,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -665,7 +653,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -975,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +993,7 @@
         <v>140</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1024,10 +1012,10 @@
         <v>152</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>3</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1049,7 +1037,7 @@
         <v>157</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1060,7 +1048,7 @@
         <v>158</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1104,165 +1092,103 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.7109375" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="15.7109375" style="14"/>
+    <col min="1" max="1" width="26" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="15.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1283,42 +1209,77 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="19.5703125" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="31.42578125" style="11"/>
+    <col min="1" max="1" width="26" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="15.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>142</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+      <formula1>Object</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
+      <formula1>Keyword</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1328,8 +1289,8 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:F17"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/TestSuite.xlsx
+++ b/src/test/resources/TestSuite.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="166">
   <si>
     <t>TCID</t>
   </si>
@@ -513,6 +513,18 @@
   </si>
   <si>
     <t>http://www.google.com</t>
+  </si>
+  <si>
+    <t>name~~q</t>
+  </si>
+  <si>
+    <t>name~~btnG</t>
+  </si>
+  <si>
+    <t>closeBroswer</t>
+  </si>
+  <si>
+    <t>Closing the Browser</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1107,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1209,10 +1221,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1220,7 +1232,7 @@
     <col min="1" max="1" width="26" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="15.7109375" style="11"/>
   </cols>
@@ -1255,7 +1267,7 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>143</v>
       </c>
@@ -1268,12 +1280,51 @@
       </c>
       <c r="E3" s="13"/>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
       <formula1>Object</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
       <formula1>Keyword</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/resources/TestSuite.xlsx
+++ b/src/test/resources/TestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
     <t>Closing the Browser</t>
   </si>
   <si>
-    <t>n</t>
-  </si>
-  <si>
     <t>http://www.yahoo.com</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -587,7 +587,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -777,7 +777,7 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="10"/>
     </row>

--- a/src/test/resources/TestSuite.xlsx
+++ b/src/test/resources/TestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -724,7 +724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestSuite.xlsx
+++ b/src/test/resources/TestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>TCID</t>
   </si>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -722,10 +722,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -781,6 +781,17 @@
       </c>
       <c r="E3" s="10"/>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">

--- a/src/test/resources/TestSuite.xlsx
+++ b/src/test/resources/TestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>TCID</t>
   </si>
@@ -546,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -605,10 +605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -666,49 +666,60 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B5:B6">
       <formula1>Keyword</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C5:C6">
       <formula1>Object</formula1>
     </dataValidation>
   </dataValidations>
@@ -724,7 +735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/TestSuite.xlsx
+++ b/src/test/resources/TestSuite.xlsx
@@ -108,7 +108,7 @@
     <t>http://www.yahoo.com</t>
   </si>
   <si>
-    <t>y</t>
+    <t>n</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/TestSuite.xlsx
+++ b/src/test/resources/TestSuite.xlsx
@@ -108,7 +108,7 @@
     <t>http://www.yahoo.com</t>
   </si>
   <si>
-    <t>n</t>
+    <t>y</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/TestSuite.xlsx
+++ b/src/test/resources/TestSuite.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>TCID</t>
   </si>
@@ -93,9 +93,6 @@
     <t>http://www.google.com</t>
   </si>
   <si>
-    <t>name~~q</t>
-  </si>
-  <si>
     <t>name~~btnG</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>name~~q11</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -587,7 +587,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -605,10 +605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -666,60 +666,49 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+        <v>21</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
+      <c r="D5" s="9"/>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="E6" s="9"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B5:B6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3 B4:B5">
       <formula1>Keyword</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C5:C6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C4:C5">
       <formula1>Object</formula1>
     </dataValidation>
   </dataValidations>
@@ -788,16 +777,16 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
